--- a/international/france/finance/EN/budget/11_ecology_lifestyles/11_ecology_lifestyles_budget.xlsx
+++ b/international/france/finance/EN/budget/11_ecology_lifestyles/11_ecology_lifestyles_budget.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Measure</t>
   </si>
@@ -52,19 +52,22 @@
     <t>Total – High (€M)</t>
   </si>
   <si>
-    <t>Repairer per local area</t>
-  </si>
-  <si>
-    <t>Citizen-led rewilding zones</t>
-  </si>
-  <si>
-    <t>Kilometric tax on non-essential imports</t>
-  </si>
-  <si>
-    <t>Local ecological bonus</t>
-  </si>
-  <si>
-    <t>Participatory ethical VAT</t>
+    <t>Sustainable lifestyle tax credit</t>
+  </si>
+  <si>
+    <t>Structured rewilding</t>
+  </si>
+  <si>
+    <t>Desirable sobriety</t>
+  </si>
+  <si>
+    <t>Public repair network</t>
+  </si>
+  <si>
+    <t>Cultural anti-obsolescence</t>
+  </si>
+  <si>
+    <t>Ecological distance tax</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -425,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,34 +480,34 @@
         <v>2027</v>
       </c>
       <c r="C2">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="D2">
-        <v>337</v>
+        <v>250</v>
       </c>
       <c r="E2">
-        <v>450</v>
+        <v>210</v>
       </c>
       <c r="F2">
-        <v>675</v>
+        <v>300</v>
       </c>
       <c r="G2">
-        <v>450</v>
+        <v>175</v>
       </c>
       <c r="H2">
-        <v>675</v>
+        <v>250</v>
       </c>
       <c r="I2">
-        <v>375</v>
+        <v>140</v>
       </c>
       <c r="J2">
-        <v>562</v>
+        <v>200</v>
       </c>
       <c r="K2">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="L2">
-        <v>2249</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -515,34 +518,34 @@
         <v>2027</v>
       </c>
       <c r="C3">
+        <v>160</v>
+      </c>
+      <c r="D3">
         <v>200</v>
       </c>
-      <c r="D3">
+      <c r="E3">
+        <v>240</v>
+      </c>
+      <c r="F3">
         <v>300</v>
       </c>
-      <c r="E3">
+      <c r="G3">
+        <v>240</v>
+      </c>
+      <c r="H3">
         <v>300</v>
       </c>
-      <c r="F3">
-        <v>450</v>
-      </c>
-      <c r="G3">
-        <v>300</v>
-      </c>
-      <c r="H3">
-        <v>450</v>
-      </c>
       <c r="I3">
+        <v>160</v>
+      </c>
+      <c r="J3">
         <v>200</v>
       </c>
-      <c r="J3">
-        <v>300</v>
-      </c>
       <c r="K3">
+        <v>800</v>
+      </c>
+      <c r="L3">
         <v>1000</v>
-      </c>
-      <c r="L3">
-        <v>1500</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -553,34 +556,34 @@
         <v>2027</v>
       </c>
       <c r="C4">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="D4">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="E4">
+        <v>180</v>
+      </c>
+      <c r="F4">
+        <v>270</v>
+      </c>
+      <c r="G4">
+        <v>150</v>
+      </c>
+      <c r="H4">
+        <v>225</v>
+      </c>
+      <c r="I4">
         <v>90</v>
       </c>
-      <c r="F4">
-        <v>150</v>
-      </c>
-      <c r="G4">
-        <v>60</v>
-      </c>
-      <c r="H4">
-        <v>100</v>
-      </c>
-      <c r="I4">
-        <v>30</v>
-      </c>
       <c r="J4">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="K4">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L4">
-        <v>500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -591,34 +594,34 @@
         <v>2027</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="D5">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="E5">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="F5">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="G5">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="H5">
-        <v>525</v>
+        <v>330</v>
       </c>
       <c r="I5">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="J5">
-        <v>375</v>
+        <v>220</v>
       </c>
       <c r="K5">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L5">
-        <v>1500</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -629,69 +632,107 @@
         <v>2027</v>
       </c>
       <c r="C6">
-        <v>300</v>
+        <v>125</v>
       </c>
       <c r="D6">
-        <v>450</v>
+        <v>175</v>
       </c>
       <c r="E6">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="F6">
-        <v>540</v>
+        <v>210</v>
       </c>
       <c r="G6">
-        <v>300</v>
+        <v>125</v>
       </c>
       <c r="H6">
-        <v>450</v>
+        <v>175</v>
       </c>
       <c r="I6">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="J6">
-        <v>360</v>
+        <v>140</v>
       </c>
       <c r="K6">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="L6">
-        <v>1800</v>
+        <v>700</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>17</v>
       </c>
+      <c r="B7">
+        <v>2027</v>
+      </c>
       <c r="C7">
-        <v>945</v>
+        <v>100</v>
       </c>
       <c r="D7">
-        <v>1437</v>
+        <v>140</v>
       </c>
       <c r="E7">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="F7">
-        <v>2265</v>
+        <v>210</v>
       </c>
       <c r="G7">
-        <v>1460</v>
+        <v>150</v>
       </c>
       <c r="H7">
-        <v>2200</v>
+        <v>210</v>
       </c>
       <c r="I7">
-        <v>1095</v>
+        <v>100</v>
       </c>
       <c r="J7">
-        <v>1647</v>
+        <v>140</v>
       </c>
       <c r="K7">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="L7">
-        <v>7549</v>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>920</v>
+      </c>
+      <c r="D8">
+        <v>1255</v>
+      </c>
+      <c r="E8">
+        <v>1200</v>
+      </c>
+      <c r="F8">
+        <v>1620</v>
+      </c>
+      <c r="G8">
+        <v>1110</v>
+      </c>
+      <c r="H8">
+        <v>1490</v>
+      </c>
+      <c r="I8">
+        <v>770</v>
+      </c>
+      <c r="J8">
+        <v>1035</v>
+      </c>
+      <c r="K8">
+        <v>4000</v>
+      </c>
+      <c r="L8">
+        <v>5400</v>
       </c>
     </row>
   </sheetData>
